--- a/data/trans_orig/P6607-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>150091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>132089</v>
+        <v>131235</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>170090</v>
+        <v>167678</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4993379580284151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4394481075032962</v>
+        <v>0.4366078222338071</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5658746586547699</v>
+        <v>0.5578486029088345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -764,19 +764,19 @@
         <v>136933</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>122123</v>
+        <v>122367</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149162</v>
+        <v>148214</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.708492964908675</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6318638371618253</v>
+        <v>0.6331254925214852</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7717661471939878</v>
+        <v>0.7668594984702638</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>262</v>
@@ -785,19 +785,19 @@
         <v>287024</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265188</v>
+        <v>265947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>308968</v>
+        <v>309349</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5811928038603611</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5369783879994376</v>
+        <v>0.5385153460231481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6256266817005759</v>
+        <v>0.626398783782217</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>83773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69744</v>
+        <v>68801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100328</v>
+        <v>100820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2787044051007344</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2320315229423345</v>
+        <v>0.2288935167180187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3337810834737522</v>
+        <v>0.3354179870175481</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -835,19 +835,19 @@
         <v>45340</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>33549</v>
+        <v>35363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58483</v>
+        <v>59790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2345917463197288</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1735816071002983</v>
+        <v>0.1829658919590469</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3025928019353276</v>
+        <v>0.3093541463326502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>123</v>
@@ -856,19 +856,19 @@
         <v>129113</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108563</v>
+        <v>110294</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149617</v>
+        <v>149491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2614404871213592</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2198295080654022</v>
+        <v>0.2233335179860207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3029578929324435</v>
+        <v>0.3027036078935472</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>43811</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31141</v>
+        <v>31072</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58279</v>
+        <v>58755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1457562444563609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.103602468068563</v>
+        <v>0.1033751184238813</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1938906971635866</v>
+        <v>0.1954717628036935</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -906,19 +906,19 @@
         <v>9005</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4109</v>
+        <v>4242</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16316</v>
+        <v>18233</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04659189280974508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02126248159726627</v>
+        <v>0.0219469430252693</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08441984648716028</v>
+        <v>0.09433774784204384</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -927,19 +927,19 @@
         <v>52816</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39567</v>
+        <v>38810</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69989</v>
+        <v>69835</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1069473111339776</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08011859993050748</v>
+        <v>0.07858556918862751</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1417204935459246</v>
+        <v>0.1414077671602909</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>22905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15113</v>
+        <v>15070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34529</v>
+        <v>33361</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07620139241448963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05027952380109142</v>
+        <v>0.05013774285314761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1148753377167593</v>
+        <v>0.1109889713307274</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6224</v>
+        <v>6180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01032339596185116</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03220117395191568</v>
+        <v>0.03197435540528537</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -998,19 +998,19 @@
         <v>24900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16235</v>
+        <v>16361</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36937</v>
+        <v>36465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05041939788430203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03287452408771466</v>
+        <v>0.03312954942472652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07479306710971804</v>
+        <v>0.073836759973351</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>122691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>104137</v>
+        <v>105717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>138214</v>
+        <v>138859</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4826559437737383</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4096656342633421</v>
+        <v>0.4158834724798231</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5437250256548268</v>
+        <v>0.5462624814022083</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -1123,19 +1123,19 @@
         <v>142130</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>129977</v>
+        <v>130303</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>150319</v>
+        <v>150643</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8508990148757103</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.778140983084081</v>
+        <v>0.78009367217067</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8999275995602845</v>
+        <v>0.9018642125809052</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>240</v>
@@ -1144,19 +1144,19 @@
         <v>264821</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>240972</v>
+        <v>242439</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>285218</v>
+        <v>285232</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6286780987297653</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5720599976209502</v>
+        <v>0.5755424271712914</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6771000254175658</v>
+        <v>0.6771332201393333</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>36730</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25744</v>
+        <v>26037</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50902</v>
+        <v>50670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1444929281678143</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1012734655862815</v>
+        <v>0.1024279164146445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2002434806822687</v>
+        <v>0.1993325818592965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1194,19 +1194,19 @@
         <v>10415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5177</v>
+        <v>5316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17330</v>
+        <v>19213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06235285539755793</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03099154149058003</v>
+        <v>0.03182460949415012</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1037487228074575</v>
+        <v>0.1150222137618084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -1215,19 +1215,19 @@
         <v>47145</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34354</v>
+        <v>34270</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61463</v>
+        <v>62442</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1119213161663591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08155454316655292</v>
+        <v>0.08135513548388813</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1459126122208675</v>
+        <v>0.148235521883441</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>60090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46670</v>
+        <v>46746</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75404</v>
+        <v>76187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2363896905715145</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1835974929094718</v>
+        <v>0.1838941516189318</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.296635339379541</v>
+        <v>0.2997140593506787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1265,19 +1265,19 @@
         <v>6685</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2838</v>
+        <v>2137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16392</v>
+        <v>15470</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04002331651733248</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01698919377953096</v>
+        <v>0.01279569073814132</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09813257336554096</v>
+        <v>0.09261352847185539</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -1286,19 +1286,19 @@
         <v>66775</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>50434</v>
+        <v>50752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84516</v>
+        <v>84174</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1585230765046535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1197277929998819</v>
+        <v>0.120484630684061</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.20063871461715</v>
+        <v>0.1998263097808555</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>34688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24282</v>
+        <v>24416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47756</v>
+        <v>48833</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1364614374869328</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0955221035551882</v>
+        <v>0.09605090690405707</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.187868058419661</v>
+        <v>0.19210449041745</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1336,19 +1336,19 @@
         <v>7805</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3039</v>
+        <v>3919</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17234</v>
+        <v>16143</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04672481320939927</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01819153124604287</v>
+        <v>0.02346238932120854</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1031786577543465</v>
+        <v>0.09664393697396367</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -1357,19 +1357,19 @@
         <v>42493</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30518</v>
+        <v>30508</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57262</v>
+        <v>58445</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1008775085992221</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07244933315584215</v>
+        <v>0.07242610909683779</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1359384308018441</v>
+        <v>0.1387472506975499</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>117489</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101059</v>
+        <v>101838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132607</v>
+        <v>135344</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4204214373107348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3616291669557913</v>
+        <v>0.3644150490279653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4745183986417876</v>
+        <v>0.4843126658671758</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -1482,19 +1482,19 @@
         <v>91137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81815</v>
+        <v>82305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97925</v>
+        <v>98400</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8226210872891505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7384756727088317</v>
+        <v>0.7428983629395542</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8838902980664625</v>
+        <v>0.8881792574576253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>201</v>
@@ -1503,19 +1503,19 @@
         <v>208627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>188935</v>
+        <v>188817</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>226852</v>
+        <v>229599</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5346043864231483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4841453488004955</v>
+        <v>0.4838420712506478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5813068439377306</v>
+        <v>0.5883453360955544</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>80700</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>67589</v>
+        <v>66252</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>96598</v>
+        <v>96768</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2887754554857853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2418591749759983</v>
+        <v>0.2370743811225669</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3456629078631944</v>
+        <v>0.3462732063137218</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>10</v>
@@ -1553,19 +1553,19 @@
         <v>10472</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5219</v>
+        <v>5201</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>17828</v>
+        <v>17865</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0945249105777734</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04710597870616225</v>
+        <v>0.04694489185474322</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1609174990822063</v>
+        <v>0.1612562248203053</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>91</v>
@@ -1574,19 +1574,19 @@
         <v>91172</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>75355</v>
+        <v>74566</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>107928</v>
+        <v>108168</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.23362846546359</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1930969714618679</v>
+        <v>0.1910742031811805</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2765646218203356</v>
+        <v>0.2771797331532583</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>47361</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36792</v>
+        <v>35125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60187</v>
+        <v>60558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1694752792224845</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1316564487511464</v>
+        <v>0.1256908464036545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2153733909400571</v>
+        <v>0.216697977169385</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1624,19 +1624,19 @@
         <v>4149</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10422</v>
+        <v>9422</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0374474927954638</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009420895332749054</v>
+        <v>0.009353628660042617</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09407248458672959</v>
+        <v>0.08504798288330985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1645,19 +1645,19 @@
         <v>51510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40106</v>
+        <v>38762</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66965</v>
+        <v>66445</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1319930933980311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1027702637577898</v>
+        <v>0.09932837968749289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.171596602232759</v>
+        <v>0.1702640091379498</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>33906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22973</v>
+        <v>23480</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48184</v>
+        <v>47936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1213278279809955</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08220491787108361</v>
+        <v>0.08402015251992749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1724221189920767</v>
+        <v>0.1715343322349414</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1695,19 +1695,19 @@
         <v>5031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1301</v>
+        <v>1890</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10407</v>
+        <v>10433</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04540650933761224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01173854901089112</v>
+        <v>0.01706182458823996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09393542622134848</v>
+        <v>0.09417175381675368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -1716,19 +1716,19 @@
         <v>38936</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27965</v>
+        <v>28038</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52933</v>
+        <v>54847</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09977405471523063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07166028638024943</v>
+        <v>0.07184617347513775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1356405483812923</v>
+        <v>0.1405450675757387</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>160455</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>140077</v>
+        <v>140606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>180393</v>
+        <v>179918</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3802830319009508</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3319871389995522</v>
+        <v>0.3332399397397718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4275373258002057</v>
+        <v>0.4264107343060105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>211</v>
@@ -1841,19 +1841,19 @@
         <v>222881</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206360</v>
+        <v>206748</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>238428</v>
+        <v>237533</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7459742607277985</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6906784458469349</v>
+        <v>0.6919801343773179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7980109783393676</v>
+        <v>0.7950138017035857</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>363</v>
@@ -1862,19 +1862,19 @@
         <v>383336</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>356122</v>
+        <v>354162</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>410156</v>
+        <v>408991</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5318837164425876</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4941250642403095</v>
+        <v>0.4914054816707497</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5690979770321437</v>
+        <v>0.5674804984171475</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>75751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60884</v>
+        <v>59515</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92751</v>
+        <v>92947</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1795329404289558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1442976943666507</v>
+        <v>0.1410526705735752</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2198227079163653</v>
+        <v>0.2202881397834114</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>47</v>
@@ -1912,19 +1912,19 @@
         <v>49494</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36807</v>
+        <v>37201</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64031</v>
+        <v>64335</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1656550462426294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1231902708669307</v>
+        <v>0.1245103898938739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2143095604905865</v>
+        <v>0.2153277774750876</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>116</v>
@@ -1933,19 +1933,19 @@
         <v>125245</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105235</v>
+        <v>103892</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146602</v>
+        <v>144925</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1737797309101142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1460154951869727</v>
+        <v>0.1441511579843027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2034127468665565</v>
+        <v>0.2010860343965456</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>77321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>62706</v>
+        <v>61539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>94363</v>
+        <v>94376</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1832543797759069</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.148614794645539</v>
+        <v>0.1458501294226711</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2236440743748101</v>
+        <v>0.2236731859329603</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1983,19 +1983,19 @@
         <v>11721</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5946</v>
+        <v>5847</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21276</v>
+        <v>21787</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03923078267003536</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0199010817522215</v>
+        <v>0.01957001845360691</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07120885635324646</v>
+        <v>0.07291927825938392</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>85</v>
@@ -2004,19 +2004,19 @@
         <v>89043</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>71689</v>
+        <v>72942</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>108074</v>
+        <v>106556</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.12354806420076</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0994694311749804</v>
+        <v>0.1012081495563832</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.149953611448598</v>
+        <v>0.1478486055280203</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>108408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>89205</v>
+        <v>91431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127646</v>
+        <v>128034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2569296478941865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2114193687712382</v>
+        <v>0.2166935715254258</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3025249645864477</v>
+        <v>0.3034440069389197</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>14682</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8241</v>
+        <v>7998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24971</v>
+        <v>24230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04913991035953674</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02758294620791752</v>
+        <v>0.02677041425636252</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08357790748362112</v>
+        <v>0.08109856571494431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>114</v>
@@ -2075,19 +2075,19 @@
         <v>123089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104036</v>
+        <v>103834</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>145865</v>
+        <v>146759</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1707884884465382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1443518612795651</v>
+        <v>0.1440709875331462</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2023903912039628</v>
+        <v>0.20362998788206</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>26511</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17557</v>
+        <v>18812</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36266</v>
+        <v>36826</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1733994575391953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1148381791472014</v>
+        <v>0.1230461908454633</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2372042478800435</v>
+        <v>0.2408700806557326</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>87</v>
@@ -2200,19 +2200,19 @@
         <v>96483</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>82989</v>
+        <v>83746</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>109680</v>
+        <v>109565</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.55521696493604</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4775654161763349</v>
+        <v>0.4819192764523587</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6311610609874014</v>
+        <v>0.6305005359281183</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>112</v>
@@ -2221,19 +2221,19 @@
         <v>122993</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>105406</v>
+        <v>105829</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>142396</v>
+        <v>141841</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3765148332408236</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3226737418911392</v>
+        <v>0.3239702960744578</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4359121536427646</v>
+        <v>0.4342126883162181</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>20458</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12095</v>
+        <v>12203</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29923</v>
+        <v>31299</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1338103279490962</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07910740891292439</v>
+        <v>0.07981718934360819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1957197202225394</v>
+        <v>0.2047185342272366</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2271,19 +2271,19 @@
         <v>34798</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24116</v>
+        <v>25400</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44961</v>
+        <v>46934</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2002485420954868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1387777684427633</v>
+        <v>0.146163628582862</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.258731809930817</v>
+        <v>0.2700845981250125</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>50</v>
@@ -2292,19 +2292,19 @@
         <v>55256</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42706</v>
+        <v>42556</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>70542</v>
+        <v>70176</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.169153450162881</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.130732962955014</v>
+        <v>0.1302737003296925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2159471441122507</v>
+        <v>0.2148282203182921</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>31263</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21738</v>
+        <v>22212</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42032</v>
+        <v>42013</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.204484367196197</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1421845118825027</v>
+        <v>0.1452827424413713</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2749184306669774</v>
+        <v>0.2747951487959461</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2342,19 +2342,19 @@
         <v>18177</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11856</v>
+        <v>11136</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27686</v>
+        <v>26793</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1046025913991837</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06822755883076335</v>
+        <v>0.06408428686069867</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1593194157490487</v>
+        <v>0.1541841256767908</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>47</v>
@@ -2363,19 +2363,19 @@
         <v>49441</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>37303</v>
+        <v>35202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64179</v>
+        <v>62555</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1513502808231743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1141940095771055</v>
+        <v>0.1077627509837991</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1964684350645378</v>
+        <v>0.1914957346012203</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>74656</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>61940</v>
+        <v>62902</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>88561</v>
+        <v>87204</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4883058473155115</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4051340966064341</v>
+        <v>0.4114250350161106</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5792547337031698</v>
+        <v>0.570375670734942</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -2413,19 +2413,19 @@
         <v>24317</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>14851</v>
+        <v>15627</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>34766</v>
+        <v>36193</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1399319015692895</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0854621484405631</v>
+        <v>0.08992856941988983</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2000639397860488</v>
+        <v>0.2082734719695565</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>93</v>
@@ -2434,19 +2434,19 @@
         <v>98973</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>83115</v>
+        <v>82722</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>115821</v>
+        <v>117347</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.302981435773121</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2544379133538375</v>
+        <v>0.2532338345936951</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3545572940264228</v>
+        <v>0.359228644736216</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>577236</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>542562</v>
+        <v>538821</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>619147</v>
+        <v>616030</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4096611050399486</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3850528493062589</v>
+        <v>0.3823982627056556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4394048935319476</v>
+        <v>0.4371924598500705</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>638</v>
@@ -2559,19 +2559,19 @@
         <v>689565</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>662302</v>
+        <v>656306</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>717363</v>
+        <v>716810</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7307406556153411</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7018497808869598</v>
+        <v>0.6954959432260757</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7601985883012984</v>
+        <v>0.7596131501236321</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1178</v>
@@ -2580,19 +2580,19 @@
         <v>1266801</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1219838</v>
+        <v>1220507</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1318093</v>
+        <v>1321748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5384434084851311</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5184821517581393</v>
+        <v>0.5187666395403787</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5602445856131241</v>
+        <v>0.5617982309377839</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>297412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>266181</v>
+        <v>263245</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>331849</v>
+        <v>330456</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2110715648849366</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1889069041620172</v>
+        <v>0.1868233499576826</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2355111535816037</v>
+        <v>0.2345227992528803</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>140</v>
@@ -2630,19 +2630,19 @@
         <v>150520</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>128856</v>
+        <v>128483</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>175460</v>
+        <v>177301</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1595082939541691</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1365505214429612</v>
+        <v>0.1361553046982066</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1859374531081479</v>
+        <v>0.1878883623196319</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>423</v>
@@ -2651,19 +2651,19 @@
         <v>447932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>407171</v>
+        <v>406523</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>489587</v>
+        <v>487361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1903899712059489</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1730646929568199</v>
+        <v>0.1727892773705041</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2080951220635164</v>
+        <v>0.2071486079873889</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>259847</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>229727</v>
+        <v>231298</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>289969</v>
+        <v>290201</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1844118756893433</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1630355747679474</v>
+        <v>0.1641510422596099</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2057890686582554</v>
+        <v>0.2059539248297516</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>45</v>
@@ -2701,19 +2701,19 @@
         <v>49738</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36333</v>
+        <v>36888</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>65337</v>
+        <v>65946</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05270768436512696</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03850277335076743</v>
+        <v>0.03909037180350008</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06923830616411006</v>
+        <v>0.06988337939118502</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>292</v>
@@ -2722,19 +2722,19 @@
         <v>309585</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>277761</v>
+        <v>275535</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>342709</v>
+        <v>343363</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1315864338269692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1180599688995354</v>
+        <v>0.1171139357283587</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1456654457025126</v>
+        <v>0.1459436692018662</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>274563</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>245152</v>
+        <v>244796</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>307896</v>
+        <v>308576</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1948554543857715</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1739828038555483</v>
+        <v>0.1737305243181477</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2185119134251078</v>
+        <v>0.2189943687047415</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -2772,19 +2772,19 @@
         <v>53829</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39635</v>
+        <v>41206</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>71238</v>
+        <v>71290</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05704336606536289</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04200181780630149</v>
+        <v>0.04366630899011958</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07549213020176493</v>
+        <v>0.07554669064269236</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>303</v>
@@ -2793,19 +2793,19 @@
         <v>328392</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>296282</v>
+        <v>296157</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>364299</v>
+        <v>364593</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1395801864819508</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.125932286911103</v>
+        <v>0.125879199554112</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1548423255723586</v>
+        <v>0.1549671090631908</v>
       </c>
     </row>
     <row r="33">
@@ -3138,19 +3138,19 @@
         <v>155463</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>138637</v>
+        <v>137084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173109</v>
+        <v>172490</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5631652064687761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5022128287550568</v>
+        <v>0.4965855003695458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6270855502593106</v>
+        <v>0.6248447761108312</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>149</v>
@@ -3159,19 +3159,19 @@
         <v>151407</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137305</v>
+        <v>137309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163986</v>
+        <v>163864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7069328672965502</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6410930333723552</v>
+        <v>0.6411103382820496</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7656663083230812</v>
+        <v>0.7650991391600441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>293</v>
@@ -3180,19 +3180,19 @@
         <v>306870</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>283573</v>
+        <v>284675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>329958</v>
+        <v>327249</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6259755976726609</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5784531909257461</v>
+        <v>0.5806993905525097</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6730722894481114</v>
+        <v>0.6675452663309077</v>
       </c>
     </row>
     <row r="5">
@@ -3209,19 +3209,19 @@
         <v>80697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66306</v>
+        <v>66061</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>98381</v>
+        <v>98226</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2923236784872786</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2401923696926773</v>
+        <v>0.2393071880302487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3563831261243774</v>
+        <v>0.3558234213655421</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>42</v>
@@ -3230,19 +3230,19 @@
         <v>43471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32951</v>
+        <v>33500</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57812</v>
+        <v>56506</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2029698148821666</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1538529104646443</v>
+        <v>0.1564126491976284</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2699312257090908</v>
+        <v>0.2638313368660694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>112</v>
@@ -3251,19 +3251,19 @@
         <v>124168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104483</v>
+        <v>105761</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>144395</v>
+        <v>145278</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2532860319379692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2131313971198861</v>
+        <v>0.2157394111137012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2945478989056918</v>
+        <v>0.2963482619801855</v>
       </c>
     </row>
     <row r="6">
@@ -3280,19 +3280,19 @@
         <v>26986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17827</v>
+        <v>18284</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39453</v>
+        <v>39164</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09775819375127291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06457841144633676</v>
+        <v>0.06623472499254217</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1429186803701131</v>
+        <v>0.1418713277751048</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -3301,19 +3301,19 @@
         <v>12887</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6898</v>
+        <v>6627</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21447</v>
+        <v>21506</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06016944298772913</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03220661813806505</v>
+        <v>0.03094216085871837</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1001396291254036</v>
+        <v>0.100414960011152</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -3322,19 +3322,19 @@
         <v>39873</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28630</v>
+        <v>28992</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53776</v>
+        <v>53373</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08133611296669496</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05840234277923411</v>
+        <v>0.05913935124301457</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1096960832966526</v>
+        <v>0.10887319680684</v>
       </c>
     </row>
     <row r="7">
@@ -3351,19 +3351,19 @@
         <v>12906</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6908</v>
+        <v>7030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22026</v>
+        <v>21858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04675292129267234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0250238457930308</v>
+        <v>0.02546668730308869</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07979071273516603</v>
+        <v>0.07918125722006984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -3372,19 +3372,19 @@
         <v>6410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2852</v>
+        <v>2587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12129</v>
+        <v>14040</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02992787483355404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01331641358659719</v>
+        <v>0.01207810230928373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05662942498059093</v>
+        <v>0.06555482475777573</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -3393,19 +3393,19 @@
         <v>19316</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11836</v>
+        <v>10879</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30898</v>
+        <v>29770</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03940225742267495</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02414342289305118</v>
+        <v>0.02219276193979182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06302787100423626</v>
+        <v>0.06072734419198198</v>
       </c>
     </row>
     <row r="8">
@@ -3497,19 +3497,19 @@
         <v>109630</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94652</v>
+        <v>93208</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>126908</v>
+        <v>126554</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4556868692519759</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3934316020094524</v>
+        <v>0.3874281338026926</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5275072525771911</v>
+        <v>0.5260354757994127</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -3518,19 +3518,19 @@
         <v>135408</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>122469</v>
+        <v>122238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>147486</v>
+        <v>147696</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7157795393599864</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6473835449103194</v>
+        <v>0.646159296467102</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.779622514112055</v>
+        <v>0.7807359191015203</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>232</v>
@@ -3539,19 +3539,19 @@
         <v>245038</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>223554</v>
+        <v>222812</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>264097</v>
+        <v>266630</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5701777226925124</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5201880944714887</v>
+        <v>0.5184606251267816</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6145269408085311</v>
+        <v>0.62042085274078</v>
       </c>
     </row>
     <row r="10">
@@ -3568,19 +3568,19 @@
         <v>47536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35657</v>
+        <v>36749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63320</v>
+        <v>62179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1975886566033425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1482136948152241</v>
+        <v>0.1527501978016672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2631973476722655</v>
+        <v>0.2584528331874619</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3589,19 +3589,19 @@
         <v>30856</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20936</v>
+        <v>21339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41969</v>
+        <v>41769</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1631078266696377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.110667802419944</v>
+        <v>0.1127972119444627</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2218533964170864</v>
+        <v>0.2207967812709513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -3610,19 +3610,19 @@
         <v>78392</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62564</v>
+        <v>62095</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98182</v>
+        <v>94097</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.182410452447076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1455807423680432</v>
+        <v>0.1444886379087001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2284604082459566</v>
+        <v>0.2189539671054656</v>
       </c>
     </row>
     <row r="11">
@@ -3639,19 +3639,19 @@
         <v>45414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33119</v>
+        <v>34629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58931</v>
+        <v>63043</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1887662105294179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1376624789989667</v>
+        <v>0.1439400077598973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2449539737725174</v>
+        <v>0.262045506634935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -3660,19 +3660,19 @@
         <v>14592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8413</v>
+        <v>8628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21941</v>
+        <v>23921</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07713469240763292</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04447104261015448</v>
+        <v>0.04560955802931047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1159832753044377</v>
+        <v>0.1264460191446467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -3681,19 +3681,19 @@
         <v>60006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46771</v>
+        <v>45824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75482</v>
+        <v>76769</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1396268488729809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1088320607122839</v>
+        <v>0.1066277385688391</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.175638754506946</v>
+        <v>0.1786329307355121</v>
       </c>
     </row>
     <row r="12">
@@ -3710,19 +3710,19 @@
         <v>38002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27692</v>
+        <v>26906</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51318</v>
+        <v>49980</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1579582636152637</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1151048862299858</v>
+        <v>0.1118384068557974</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2133091445852346</v>
+        <v>0.2077489237960767</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -3731,19 +3731,19 @@
         <v>8320</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3895</v>
+        <v>3763</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16701</v>
+        <v>15565</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04397794156274292</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02058984474976014</v>
+        <v>0.01989254693049358</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08828050707528048</v>
+        <v>0.08227841171535893</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -3752,19 +3752,19 @@
         <v>46321</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>34744</v>
+        <v>33666</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60384</v>
+        <v>61738</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1077849759874306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08084602701300021</v>
+        <v>0.07833632417336024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.140507523651153</v>
+        <v>0.1436588632435857</v>
       </c>
     </row>
     <row r="13">
@@ -3856,19 +3856,19 @@
         <v>77356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62946</v>
+        <v>63359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92312</v>
+        <v>93318</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3602356567802849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2931299294032865</v>
+        <v>0.2950567365468098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4298872288361552</v>
+        <v>0.4345700622609857</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -3877,19 +3877,19 @@
         <v>56282</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49676</v>
+        <v>49202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60688</v>
+        <v>60841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8643053194218299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7628578561730035</v>
+        <v>0.7555863779086084</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9319690276346142</v>
+        <v>0.934323420859868</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -3898,19 +3898,19 @@
         <v>133637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116463</v>
+        <v>115982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>151795</v>
+        <v>150416</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4775254501004905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4161585381819107</v>
+        <v>0.4144374995740025</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5424089445239917</v>
+        <v>0.5374815736023987</v>
       </c>
     </row>
     <row r="15">
@@ -3927,19 +3927,19 @@
         <v>77964</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>63991</v>
+        <v>64246</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>93731</v>
+        <v>92083</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3630671820247632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2979966527007201</v>
+        <v>0.2991843904929239</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4364959141221077</v>
+        <v>0.4288179093033</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -3948,19 +3948,19 @@
         <v>6901</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3258</v>
+        <v>2773</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13100</v>
+        <v>13841</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1059799770068994</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05002516806387718</v>
+        <v>0.04257896205512449</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.201175651633617</v>
+        <v>0.2125541401209102</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>81</v>
@@ -3969,19 +3969,19 @@
         <v>84864</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>68523</v>
+        <v>70380</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>101675</v>
+        <v>101522</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3032466703443022</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2448538674622599</v>
+        <v>0.251487732613321</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3633146130783845</v>
+        <v>0.3627691424447017</v>
       </c>
     </row>
     <row r="16">
@@ -3998,19 +3998,19 @@
         <v>39741</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29303</v>
+        <v>29925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52441</v>
+        <v>52616</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1850706637218499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1364616154763241</v>
+        <v>0.1393589287170663</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2442123710566272</v>
+        <v>0.2450280798293993</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6896</v>
+        <v>6832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0297147035712708</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.105899054841237</v>
+        <v>0.1049238664354422</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -4040,19 +4040,19 @@
         <v>41676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28753</v>
+        <v>31177</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54601</v>
+        <v>55369</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1489215561528008</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.102743525908601</v>
+        <v>0.1114036297079666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1951067958216741</v>
+        <v>0.1978494509729845</v>
       </c>
     </row>
     <row r="17">
@@ -4069,19 +4069,19 @@
         <v>19676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12732</v>
+        <v>11726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30352</v>
+        <v>29077</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09162649747310207</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05928955472141292</v>
+        <v>0.05460529533471601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1413474493434008</v>
+        <v>0.1354091888695178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>19675</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12708</v>
+        <v>12134</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29993</v>
+        <v>30036</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0703063234024066</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04540888505933023</v>
+        <v>0.04335845000179845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1071727285945839</v>
+        <v>0.1073292642673039</v>
       </c>
     </row>
     <row r="18">
@@ -4207,19 +4207,19 @@
         <v>166608</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>145541</v>
+        <v>146482</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187954</v>
+        <v>190607</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3460428293132605</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3022865757648892</v>
+        <v>0.3042414378384393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3903774693271799</v>
+        <v>0.3958872902901693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>255</v>
@@ -4228,19 +4228,19 @@
         <v>258092</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>241666</v>
+        <v>240311</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>275186</v>
+        <v>274609</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7072145885025273</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6622043158559449</v>
+        <v>0.6584915517017824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7540546795585349</v>
+        <v>0.7524738341074083</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>416</v>
@@ -4249,19 +4249,19 @@
         <v>424700</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>395200</v>
+        <v>394613</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>454614</v>
+        <v>452880</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5017674582121598</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4669138383867938</v>
+        <v>0.4662211528206086</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5371095122928108</v>
+        <v>0.5350607034690277</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>122397</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>102143</v>
+        <v>102701</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140920</v>
+        <v>143233</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2542158674913534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2121489591498543</v>
+        <v>0.2133095276477867</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2926883522992861</v>
+        <v>0.2974927866552479</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>67</v>
@@ -4299,19 +4299,19 @@
         <v>68691</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>54825</v>
+        <v>54428</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>84166</v>
+        <v>84391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1882236912565722</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1502287595121674</v>
+        <v>0.1491409796560007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.230628041458539</v>
+        <v>0.2312448249350476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>181</v>
@@ -4320,19 +4320,19 @@
         <v>191087</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>168351</v>
+        <v>165850</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215622</v>
+        <v>216144</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2257623494824695</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1989005743042837</v>
+        <v>0.195945185246789</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2547497268846059</v>
+        <v>0.255366094629309</v>
       </c>
     </row>
     <row r="21">
@@ -4349,19 +4349,19 @@
         <v>78651</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>63617</v>
+        <v>64252</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>96211</v>
+        <v>96659</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1633567473001942</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1321325408646296</v>
+        <v>0.1334503211402304</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1998293157666712</v>
+        <v>0.200758542321418</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -4370,19 +4370,19 @@
         <v>27907</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19347</v>
+        <v>18726</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38782</v>
+        <v>39902</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07646926141665601</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05301508962419006</v>
+        <v>0.05131342678068474</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1062680775495141</v>
+        <v>0.1093369976617174</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>102</v>
@@ -4391,19 +4391,19 @@
         <v>106558</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>89043</v>
+        <v>88372</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>125942</v>
+        <v>127923</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1258939026814878</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1052005644422597</v>
+        <v>0.1044083965752537</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1487956327745509</v>
+        <v>0.1511364875183741</v>
       </c>
     </row>
     <row r="22">
@@ -4420,19 +4420,19 @@
         <v>113811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96647</v>
+        <v>95920</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134069</v>
+        <v>133313</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2363845558951919</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2007349076899703</v>
+        <v>0.1992250870109979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2784586944046014</v>
+        <v>0.2768896220476209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -4441,19 +4441,19 @@
         <v>10252</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5278</v>
+        <v>5205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17922</v>
+        <v>19039</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02809245882424457</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01446341030250261</v>
+        <v>0.01426321546626307</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04910910645082151</v>
+        <v>0.05216878379330578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>118</v>
@@ -4462,19 +4462,19 @@
         <v>124063</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>104509</v>
+        <v>105376</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144549</v>
+        <v>146942</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1465762896238828</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1234733465752236</v>
+        <v>0.1244984009149521</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.170779481203135</v>
+        <v>0.1736062979579201</v>
       </c>
     </row>
     <row r="23">
@@ -4566,19 +4566,19 @@
         <v>32753</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23297</v>
+        <v>23311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>44841</v>
+        <v>44247</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1696830943855462</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1206985505629532</v>
+        <v>0.1207660847448257</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2323113831857671</v>
+        <v>0.2292339825945481</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>109</v>
@@ -4587,19 +4587,19 @@
         <v>112838</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>99294</v>
+        <v>98871</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>126844</v>
+        <v>127533</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5764649590043464</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5072709800793478</v>
+        <v>0.5051120422010826</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6480189397677673</v>
+        <v>0.6515414522866022</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>140</v>
@@ -4608,19 +4608,19 @@
         <v>145590</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>126239</v>
+        <v>125945</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>164886</v>
+        <v>163979</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3744967726625856</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3247205058569819</v>
+        <v>0.3239634794781552</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4241307064716239</v>
+        <v>0.4217976194061766</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>31163</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22606</v>
+        <v>21600</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44181</v>
+        <v>43263</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.161448524097886</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1171144925855007</v>
+        <v>0.1119024682490194</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2288900990241694</v>
+        <v>0.2241352520487809</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>40</v>
@@ -4658,19 +4658,19 @@
         <v>41963</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31339</v>
+        <v>31644</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56783</v>
+        <v>54410</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2143816216875648</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1601055307126807</v>
+        <v>0.1616609367274877</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2900948658238156</v>
+        <v>0.2779682647728993</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>68</v>
@@ -4679,19 +4679,19 @@
         <v>73126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57874</v>
+        <v>58533</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>88898</v>
+        <v>90510</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1881002098363818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1488682800267632</v>
+        <v>0.1505626000810048</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2286677892989764</v>
+        <v>0.2328143300331811</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>37180</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27080</v>
+        <v>25785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50405</v>
+        <v>49966</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.192622791463283</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.140297144856281</v>
+        <v>0.1335841423509734</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2611379575254982</v>
+        <v>0.2588638454566943</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -4729,19 +4729,19 @@
         <v>6880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2920</v>
+        <v>2897</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12957</v>
+        <v>13549</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0351494364959555</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01491710980588292</v>
+        <v>0.01480222900994577</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06619562948233244</v>
+        <v>0.06921898725210451</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -4750,19 +4750,19 @@
         <v>44061</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31481</v>
+        <v>33340</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57900</v>
+        <v>59205</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1133353407021518</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08097804906653376</v>
+        <v>0.08576043338534013</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1489350741237971</v>
+        <v>0.1522914841195509</v>
       </c>
     </row>
     <row r="27">
@@ -4779,19 +4779,19 @@
         <v>91926</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>77066</v>
+        <v>76882</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>105838</v>
+        <v>106686</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4762455900532849</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3992602427721477</v>
+        <v>0.3983088885652313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5483192170326755</v>
+        <v>0.5527127386252441</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>34</v>
@@ -4800,19 +4800,19 @@
         <v>34060</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>24732</v>
+        <v>24399</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46232</v>
+        <v>46062</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1740039828121334</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1263482055150341</v>
+        <v>0.1246483994714851</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2361896411561691</v>
+        <v>0.2353202017242459</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>119</v>
@@ -4821,19 +4821,19 @@
         <v>125986</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>108998</v>
+        <v>106599</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>145368</v>
+        <v>145364</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3240676767988808</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2803724295885264</v>
+        <v>0.2741997703201242</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3739257156779833</v>
+        <v>0.3739143526391575</v>
       </c>
     </row>
     <row r="28">
@@ -4925,19 +4925,19 @@
         <v>541809</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>505291</v>
+        <v>500629</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>579099</v>
+        <v>581497</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3853938829073705</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3594179366831535</v>
+        <v>0.3561017931656479</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4119187951365201</v>
+        <v>0.4136244830194895</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>698</v>
@@ -4946,19 +4946,19 @@
         <v>714027</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>683357</v>
+        <v>684632</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>739025</v>
+        <v>743629</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6938018773705817</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6640006685246518</v>
+        <v>0.6652391623423908</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.718092053252348</v>
+        <v>0.7225658207878481</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1208</v>
@@ -4967,19 +4967,19 @@
         <v>1255835</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1209313</v>
+        <v>1207129</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1306456</v>
+        <v>1309102</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5157418251209251</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4966362067759568</v>
+        <v>0.4957393230154377</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5365304428227334</v>
+        <v>0.537617270123248</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>359756</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>326627</v>
+        <v>322706</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>394229</v>
+        <v>391215</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2558977271405577</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2323329771601815</v>
+        <v>0.2295439228822237</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2804189878862712</v>
+        <v>0.278274594960395</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>185</v>
@@ -5017,19 +5017,19 @@
         <v>191882</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>168485</v>
+        <v>167385</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>217712</v>
+        <v>217143</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1864470479576884</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1637127924742153</v>
+        <v>0.162643529185957</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2115448618256154</v>
+        <v>0.2109928039101547</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>515</v>
@@ -5038,19 +5038,19 @@
         <v>551638</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>504260</v>
+        <v>509488</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>591921</v>
+        <v>594027</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2265445544623422</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2070876974519336</v>
+        <v>0.2092346296376626</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2430878026088906</v>
+        <v>0.2439527550767162</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>227973</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>200277</v>
+        <v>199910</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>256384</v>
+        <v>257536</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1621589877802695</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1424587212734419</v>
+        <v>0.1421976324792482</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1823686237700601</v>
+        <v>0.1831879767553332</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>64</v>
@@ -5088,19 +5088,19 @@
         <v>64201</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49256</v>
+        <v>51880</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>81408</v>
+        <v>80045</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06238224794147003</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04786118966865794</v>
+        <v>0.05041060210208235</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07910176549036048</v>
+        <v>0.07777793622390343</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>274</v>
@@ -5109,19 +5109,19 @@
         <v>292173</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>259951</v>
+        <v>259012</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>322877</v>
+        <v>325820</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1199885740677414</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.106755586574595</v>
+        <v>0.1063699385688624</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1325977795261543</v>
+        <v>0.1338066514884574</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>276321</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>246522</v>
+        <v>247848</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>310440</v>
+        <v>307814</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1965494021718023</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.175353338346937</v>
+        <v>0.1762964188977535</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2208185372358573</v>
+        <v>0.2189511098471361</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>58</v>
@@ -5159,19 +5159,19 @@
         <v>59041</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>45668</v>
+        <v>45270</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>76423</v>
+        <v>74374</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05736882673025979</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04437399318933363</v>
+        <v>0.04398815902416572</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07425837428955691</v>
+        <v>0.07226709264965991</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>316</v>
@@ -5180,19 +5180,19 @@
         <v>335362</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>298889</v>
+        <v>298274</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>366774</v>
+        <v>368408</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1377250463489913</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1227468056353022</v>
+        <v>0.1224942478225648</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.150625270397089</v>
+        <v>0.1512962327643254</v>
       </c>
     </row>
     <row r="33">
@@ -5525,19 +5525,19 @@
         <v>124289</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>107851</v>
+        <v>107444</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138077</v>
+        <v>138319</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6361380477676198</v>
+        <v>0.6361380477676197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5520052158245456</v>
+        <v>0.549921224804263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7067111852648309</v>
+        <v>0.7079492910882019</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>183</v>
@@ -5546,19 +5546,19 @@
         <v>134915</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>126837</v>
+        <v>126264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>142424</v>
+        <v>142416</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8437621022328182</v>
+        <v>0.8437621022328183</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7932388630583423</v>
+        <v>0.7896604710796956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8907208520293937</v>
+        <v>0.8906755401526941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>289</v>
@@ -5567,19 +5567,19 @@
         <v>259204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>240969</v>
+        <v>239546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>275443</v>
+        <v>275622</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7295819916341535</v>
+        <v>0.7295819916341534</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6782571650678664</v>
+        <v>0.6742504888374627</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7752914857577229</v>
+        <v>0.7757950283217978</v>
       </c>
     </row>
     <row r="5">
@@ -5596,19 +5596,19 @@
         <v>35764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26210</v>
+        <v>25320</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47667</v>
+        <v>48024</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.18305019715944</v>
+        <v>0.1830501971594401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1341476909364403</v>
+        <v>0.1295924615394734</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2439712685574009</v>
+        <v>0.2457957329175493</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -5617,19 +5617,19 @@
         <v>19073</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13048</v>
+        <v>12499</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26904</v>
+        <v>26659</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.11928287716168</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0816033265057509</v>
+        <v>0.07816879148649414</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1682571595438784</v>
+        <v>0.1667281057667182</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -5638,19 +5638,19 @@
         <v>54837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41962</v>
+        <v>42643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68022</v>
+        <v>69969</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1543508738284396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.118111921494165</v>
+        <v>0.1200282595680245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1914629617310619</v>
+        <v>0.196940715695101</v>
       </c>
     </row>
     <row r="6">
@@ -5667,19 +5667,19 @@
         <v>26379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15642</v>
+        <v>16228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40728</v>
+        <v>41059</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1350153454553273</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0800572999972821</v>
+        <v>0.08305953702276181</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2084551133950798</v>
+        <v>0.2101493814049694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -5688,19 +5688,19 @@
         <v>3566</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7733</v>
+        <v>7757</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02229970992065965</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008742587996857282</v>
+        <v>0.008689245804410318</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04836350121237767</v>
+        <v>0.04851374695351204</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -5709,19 +5709,19 @@
         <v>29945</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19733</v>
+        <v>19630</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46303</v>
+        <v>45909</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08428618718456633</v>
+        <v>0.08428618718456632</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05554347295620751</v>
+        <v>0.05525264421270402</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1303288291253086</v>
+        <v>0.1292204192121937</v>
       </c>
     </row>
     <row r="7">
@@ -5738,19 +5738,19 @@
         <v>8948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3495</v>
+        <v>4170</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18721</v>
+        <v>17858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04579640961761283</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01789006215623562</v>
+        <v>0.02134267119049479</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09581921948768332</v>
+        <v>0.09139899299703867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -5759,19 +5759,19 @@
         <v>2343</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6703</v>
+        <v>6126</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01465531068484204</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004384059623096561</v>
+        <v>0.00434711822287347</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0419208541464457</v>
+        <v>0.03831157283483539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -5780,19 +5780,19 @@
         <v>11291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5566</v>
+        <v>5506</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19812</v>
+        <v>19879</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03178094735284058</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01566788344446631</v>
+        <v>0.01549894462721323</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05576429017184274</v>
+        <v>0.05595312706854847</v>
       </c>
     </row>
     <row r="8">
@@ -5884,19 +5884,19 @@
         <v>102860</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>87618</v>
+        <v>89186</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>115863</v>
+        <v>116126</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6228559155679629</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5305605296567473</v>
+        <v>0.5400567303277314</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7015968934097</v>
+        <v>0.7031912049661847</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>137</v>
@@ -5905,19 +5905,19 @@
         <v>103445</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95154</v>
+        <v>94929</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>110380</v>
+        <v>110463</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8330334823480353</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7662626130999899</v>
+        <v>0.7644568706754856</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8888807676942095</v>
+        <v>0.8895473450746213</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>225</v>
@@ -5926,19 +5926,19 @@
         <v>206305</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>188954</v>
+        <v>189249</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>221686</v>
+        <v>222551</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7130657102213666</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6530961659654358</v>
+        <v>0.6541137647211377</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7662272110359915</v>
+        <v>0.7692195186639952</v>
       </c>
     </row>
     <row r="10">
@@ -5955,19 +5955,19 @@
         <v>35592</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25467</v>
+        <v>25749</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49279</v>
+        <v>48234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2155243239151966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1542155710439974</v>
+        <v>0.1559211107151947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2984040422930061</v>
+        <v>0.2920729415282917</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5976,19 +5976,19 @@
         <v>12069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7474</v>
+        <v>7124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19479</v>
+        <v>20038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0971934068282166</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06018830250919402</v>
+        <v>0.05737266655843917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1568596608912803</v>
+        <v>0.1613610474675668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -5997,19 +5997,19 @@
         <v>47662</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36420</v>
+        <v>35140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62886</v>
+        <v>63023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1647358030701761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1258802540396109</v>
+        <v>0.1214577656012901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.217355752494521</v>
+        <v>0.2178298720509983</v>
       </c>
     </row>
     <row r="11">
@@ -6026,19 +6026,19 @@
         <v>12912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6741</v>
+        <v>6748</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22255</v>
+        <v>22541</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07818493916067054</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04082151031131532</v>
+        <v>0.04086303021653158</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1347611678656463</v>
+        <v>0.1364929667572803</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -6047,19 +6047,19 @@
         <v>6533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2825</v>
+        <v>2809</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>12468</v>
+        <v>12689</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05261277917357007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02274951761127639</v>
+        <v>0.02261981212217578</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1004040275389238</v>
+        <v>0.1021832183860355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -6068,19 +6068,19 @@
         <v>19445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11447</v>
+        <v>12280</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29291</v>
+        <v>30432</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0672091754927326</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03956387011106983</v>
+        <v>0.04244406105868833</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1012409520052281</v>
+        <v>0.1051839356921274</v>
       </c>
     </row>
     <row r="12">
@@ -6097,19 +6097,19 @@
         <v>13779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6903</v>
+        <v>7097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25786</v>
+        <v>25693</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08343482135616986</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04180202787273669</v>
+        <v>0.04297641348082676</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1561454006831708</v>
+        <v>0.1555794423745174</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6118,19 +6118,19 @@
         <v>2131</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6555</v>
+        <v>5419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01716033165017803</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005531330607296578</v>
+        <v>0.005378859738228397</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05278271439452484</v>
+        <v>0.04364119611983535</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -6139,19 +6139,19 @@
         <v>15910</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8697</v>
+        <v>8482</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28897</v>
+        <v>27770</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05498931121572471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03005967338911148</v>
+        <v>0.02931631380273526</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09987811852432454</v>
+        <v>0.09598318872354331</v>
       </c>
     </row>
     <row r="13">
@@ -6243,19 +6243,19 @@
         <v>43532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32019</v>
+        <v>31725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56301</v>
+        <v>55493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3113152118458329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2289820130021314</v>
+        <v>0.2268806391410647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4026323039389044</v>
+        <v>0.396854203368817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -6264,19 +6264,19 @@
         <v>43826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39526</v>
+        <v>39946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46454</v>
+        <v>46564</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8999076744735688</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8116153399747743</v>
+        <v>0.8202388811918572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9538722490613224</v>
+        <v>0.956139726946348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>97</v>
@@ -6285,19 +6285,19 @@
         <v>87357</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>71116</v>
+        <v>73345</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101625</v>
+        <v>102220</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4633545422831515</v>
+        <v>0.4633545422831514</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3772092336942717</v>
+        <v>0.3890344900894706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5390329184598471</v>
+        <v>0.542190511611029</v>
       </c>
     </row>
     <row r="15">
@@ -6314,19 +6314,19 @@
         <v>50950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39002</v>
+        <v>38914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>63984</v>
+        <v>64752</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3643693109892737</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2789234301773338</v>
+        <v>0.2782902909591146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4575755305798625</v>
+        <v>0.4630727640185915</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -6335,19 +6335,19 @@
         <v>4238</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1703</v>
+        <v>1754</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8569</v>
+        <v>8472</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.08701577949033273</v>
+        <v>0.08701577949033275</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03496523746778721</v>
+        <v>0.03601000439744135</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.17594750817116</v>
+        <v>0.1739629161491974</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>53</v>
@@ -6356,19 +6356,19 @@
         <v>55188</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>43016</v>
+        <v>42267</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>70223</v>
+        <v>68398</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2927261148884175</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2281623778608478</v>
+        <v>0.2241904988721289</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3724708505577584</v>
+        <v>0.3627900209227746</v>
       </c>
     </row>
     <row r="16">
@@ -6385,19 +6385,19 @@
         <v>20904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12170</v>
+        <v>12467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31432</v>
+        <v>32811</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1494969643001814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08703587211632235</v>
+        <v>0.08915759299519543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2247856660049244</v>
+        <v>0.2346465913702272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3008</v>
+        <v>2952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01307654603609843</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06176998872504812</v>
+        <v>0.0606187906812089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -6427,19 +6427,19 @@
         <v>21541</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12330</v>
+        <v>12833</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34343</v>
+        <v>34654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1142582034124664</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06540200861511916</v>
+        <v>0.06806791861702442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1821621858280773</v>
+        <v>0.1838110441434885</v>
       </c>
     </row>
     <row r="17">
@@ -6456,19 +6456,19 @@
         <v>24445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15661</v>
+        <v>15153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37951</v>
+        <v>37908</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1748185128647121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1119966239102597</v>
+        <v>0.1083690079376983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2714056495682852</v>
+        <v>0.271099436941815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -6490,19 +6490,19 @@
         <v>24445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15704</v>
+        <v>14573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>39060</v>
+        <v>38122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1296611394159646</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0832958963414276</v>
+        <v>0.07729519738205361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2071792775587733</v>
+        <v>0.2022066111895504</v>
       </c>
     </row>
     <row r="18">
@@ -6594,19 +6594,19 @@
         <v>89966</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>71648</v>
+        <v>72233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108274</v>
+        <v>109099</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3108502708666737</v>
+        <v>0.3108502708666738</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2475572100742068</v>
+        <v>0.2495779682617721</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3741071052588019</v>
+        <v>0.3769597845588648</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>197</v>
@@ -6615,19 +6615,19 @@
         <v>154558</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>141979</v>
+        <v>141167</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>166691</v>
+        <v>165615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7044719842122907</v>
+        <v>0.7044719842122908</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.647137423365336</v>
+        <v>0.6434371492467532</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7597769022114552</v>
+        <v>0.7548701367440368</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>273</v>
@@ -6636,19 +6636,19 @@
         <v>244523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>220727</v>
+        <v>220001</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>270300</v>
+        <v>266103</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4805754116397149</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4338074815393098</v>
+        <v>0.4323792598723131</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5312351857974119</v>
+        <v>0.5229876721503474</v>
       </c>
     </row>
     <row r="20">
@@ -6665,19 +6665,19 @@
         <v>63054</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48629</v>
+        <v>49187</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79601</v>
+        <v>80053</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2178627468910949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1680235152504361</v>
+        <v>0.1699497283055223</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2750373151939475</v>
+        <v>0.2765994817265</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -6686,19 +6686,19 @@
         <v>39323</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29599</v>
+        <v>29683</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51295</v>
+        <v>51936</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1792315445758797</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.134910430494945</v>
+        <v>0.1352952466430257</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2338036910107808</v>
+        <v>0.2367219806036539</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -6707,19 +6707,19 @@
         <v>102376</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>83587</v>
+        <v>86452</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>122114</v>
+        <v>125370</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2012054182202432</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1642772694535573</v>
+        <v>0.1699091682212434</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2399968385128674</v>
+        <v>0.2463975021219779</v>
       </c>
     </row>
     <row r="21">
@@ -6736,19 +6736,19 @@
         <v>69552</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54367</v>
+        <v>53674</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>89079</v>
+        <v>87095</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2403176132317675</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1878471262607043</v>
+        <v>0.1854528204252808</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3077855660095117</v>
+        <v>0.3009310573686218</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -6757,19 +6757,19 @@
         <v>15428</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9365</v>
+        <v>9982</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24046</v>
+        <v>25745</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.07032200102979221</v>
+        <v>0.07032200102979219</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04268440538235867</v>
+        <v>0.04549709773592008</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1096029163962289</v>
+        <v>0.1173437898449909</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>76</v>
@@ -6778,19 +6778,19 @@
         <v>84981</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>67132</v>
+        <v>67506</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>106471</v>
+        <v>104391</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1670174668385582</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1319386720267215</v>
+        <v>0.1326729037344476</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2092532258980958</v>
+        <v>0.2051643898547455</v>
       </c>
     </row>
     <row r="22">
@@ -6807,19 +6807,19 @@
         <v>66847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51247</v>
+        <v>52464</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82986</v>
+        <v>85135</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2309693690104639</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1770701951897777</v>
+        <v>0.1812721680003606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2867317980153606</v>
+        <v>0.294159223150906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -6828,19 +6828,19 @@
         <v>10087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5945</v>
+        <v>5636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16517</v>
+        <v>16024</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04597447018203724</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02709794285045647</v>
+        <v>0.02568940763779095</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07528522455287719</v>
+        <v>0.07303793602961539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -6849,19 +6849,19 @@
         <v>76934</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60498</v>
+        <v>60289</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>93506</v>
+        <v>95880</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1512017033014836</v>
+        <v>0.1512017033014837</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1188999820990279</v>
+        <v>0.1184889471374505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1837729979305716</v>
+        <v>0.1884376534666081</v>
       </c>
     </row>
     <row r="23">
@@ -6953,19 +6953,19 @@
         <v>23742</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14450</v>
+        <v>14726</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36702</v>
+        <v>35489</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1406933762194657</v>
+        <v>0.1406933762194658</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08563111148345148</v>
+        <v>0.08726538747103553</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2174945107445242</v>
+        <v>0.2103039990019332</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>88</v>
@@ -6974,19 +6974,19 @@
         <v>63845</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53094</v>
+        <v>52906</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74836</v>
+        <v>73438</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4238331222029529</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3524650641813725</v>
+        <v>0.3512151796903882</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4967977824147634</v>
+        <v>0.4875158332744661</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -6995,19 +6995,19 @@
         <v>87587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>73295</v>
+        <v>72008</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104632</v>
+        <v>104235</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2742349657461077</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.229485741737975</v>
+        <v>0.2254556846223127</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3276010497449142</v>
+        <v>0.3263584979200407</v>
       </c>
     </row>
     <row r="25">
@@ -7024,19 +7024,19 @@
         <v>41708</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29459</v>
+        <v>29551</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56459</v>
+        <v>57144</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.247156128537415</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1745700482185913</v>
+        <v>0.1751173338232428</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3345703406167367</v>
+        <v>0.3386332988648657</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -7045,19 +7045,19 @@
         <v>39656</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31479</v>
+        <v>30406</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48837</v>
+        <v>49305</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.263254755500184</v>
+        <v>0.2632547555001841</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2089742376551817</v>
+        <v>0.2018468377049648</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3242040855260201</v>
+        <v>0.3273122017293092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -7066,19 +7066,19 @@
         <v>81364</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66172</v>
+        <v>65251</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97667</v>
+        <v>99294</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2547489736405889</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2071859071538074</v>
+        <v>0.2042997173896829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3057943457399439</v>
+        <v>0.3108894152534602</v>
       </c>
     </row>
     <row r="26">
@@ -7095,19 +7095,19 @@
         <v>21017</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13353</v>
+        <v>13056</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32255</v>
+        <v>31004</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1245465360781162</v>
+        <v>0.1245465360781163</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07913123696414522</v>
+        <v>0.07736862074992645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1911387377049563</v>
+        <v>0.1837265405862491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -7116,19 +7116,19 @@
         <v>11976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7271</v>
+        <v>7252</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18869</v>
+        <v>18075</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07950368443680364</v>
+        <v>0.07950368443680363</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04827041214571485</v>
+        <v>0.04814208000393541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1252600209267873</v>
+        <v>0.1199911293467169</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -7137,19 +7137,19 @@
         <v>32993</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23624</v>
+        <v>23897</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45166</v>
+        <v>45865</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1033022774025985</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07396764463888597</v>
+        <v>0.07482093113283206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1414141687872939</v>
+        <v>0.1436029119254082</v>
       </c>
     </row>
     <row r="27">
@@ -7166,19 +7166,19 @@
         <v>82283</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>66174</v>
+        <v>68128</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>97306</v>
+        <v>98030</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.487603959165003</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3921405717926958</v>
+        <v>0.4037236769682402</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5766310088366011</v>
+        <v>0.580920778064537</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>43</v>
@@ -7187,19 +7187,19 @@
         <v>35160</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>26828</v>
+        <v>25941</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46096</v>
+        <v>45854</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2334084378600595</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1780982312485583</v>
+        <v>0.1722073813048013</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3060040289229739</v>
+        <v>0.3044012430848478</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>104</v>
@@ -7208,19 +7208,19 @@
         <v>117443</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>97815</v>
+        <v>98893</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>135859</v>
+        <v>137943</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3677137832107049</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3062595358417777</v>
+        <v>0.3096324621749995</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4253757544882583</v>
+        <v>0.4318993289645034</v>
       </c>
     </row>
     <row r="28">
@@ -7312,19 +7312,19 @@
         <v>384388</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>350263</v>
+        <v>353026</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>419930</v>
+        <v>420792</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4010214069064714</v>
+        <v>0.4010214069064715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3654191110179727</v>
+        <v>0.3683025531421903</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4381014772910141</v>
+        <v>0.4390008424382211</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>662</v>
@@ -7333,19 +7333,19 @@
         <v>500588</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>478480</v>
+        <v>477655</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>520922</v>
+        <v>522529</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7122687667036781</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6808122151530334</v>
+        <v>0.6796377696253478</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7412011796768337</v>
+        <v>0.7434880524951719</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>991</v>
@@ -7354,19 +7354,19 @@
         <v>884976</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>843036</v>
+        <v>839642</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>925705</v>
+        <v>923445</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5326911620363232</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5074463388348013</v>
+        <v>0.5054032016371517</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5572067044132414</v>
+        <v>0.5558466714568647</v>
       </c>
     </row>
     <row r="30">
@@ -7383,19 +7383,19 @@
         <v>227068</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>199410</v>
+        <v>199688</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>256630</v>
+        <v>259270</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2368938501981663</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2080388905019427</v>
+        <v>0.2083285129294753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2677345568510124</v>
+        <v>0.2704889050932501</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>154</v>
@@ -7404,19 +7404,19 @@
         <v>114359</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>97323</v>
+        <v>97383</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130887</v>
+        <v>131465</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1627165687350136</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1384775311070362</v>
+        <v>0.1385626270937404</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1862344583075455</v>
+        <v>0.1870565869661607</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>355</v>
@@ -7425,19 +7425,19 @@
         <v>341427</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>308051</v>
+        <v>307714</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>374597</v>
+        <v>375501</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2055139712079797</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1854243819185755</v>
+        <v>0.1852215163619901</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2254798251951071</v>
+        <v>0.2260244025165753</v>
       </c>
     </row>
     <row r="31">
@@ -7454,19 +7454,19 @@
         <v>150765</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>125378</v>
+        <v>126587</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>177529</v>
+        <v>178575</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1572889712161315</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1308037586516685</v>
+        <v>0.1320651466295689</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1852113743873822</v>
+        <v>0.1863022049914493</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>50</v>
@@ -7475,19 +7475,19 @@
         <v>38140</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>29193</v>
+        <v>28343</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>49880</v>
+        <v>50818</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05426857611038021</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04153726474757332</v>
+        <v>0.04032818818292125</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07097192885252704</v>
+        <v>0.07230674873318747</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>173</v>
@@ -7496,19 +7496,19 @@
         <v>188906</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>160702</v>
+        <v>161586</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>216953</v>
+        <v>219575</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1137073318223294</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09673080393670055</v>
+        <v>0.09726309284861885</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1305901049880628</v>
+        <v>0.1321683566130321</v>
       </c>
     </row>
     <row r="32">
@@ -7525,19 +7525,19 @@
         <v>196301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>167190</v>
+        <v>168426</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>227756</v>
+        <v>227120</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2047957716792308</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1744245189963976</v>
+        <v>0.1757136234639189</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.237611025987455</v>
+        <v>0.2369473892950917</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>63</v>
@@ -7546,19 +7546,19 @@
         <v>49721</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37816</v>
+        <v>38791</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63798</v>
+        <v>64632</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0707460884509281</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05380747485066759</v>
+        <v>0.05519479262499881</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09077613464741317</v>
+        <v>0.09196277428824906</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>218</v>
@@ -7567,19 +7567,19 @@
         <v>246022</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>215283</v>
+        <v>212711</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>278573</v>
+        <v>280141</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1480875349333678</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1295848282605528</v>
+        <v>0.1280366919968531</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1676808918279815</v>
+        <v>0.1686243329129097</v>
       </c>
     </row>
     <row r="33">
